--- a/data_akreditasi.xlsx
+++ b/data_akreditasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18660" windowHeight="8352"/>
+    <workbookView windowWidth="23040" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="data_akreditasi" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
     <t>SP2 Ilmu Penyakit Dalam</t>
   </si>
   <si>
-    <t>SP2 Obstertik dan Ginekologi</t>
+    <t>SP2 Obstetrik dan Ginekologi</t>
   </si>
   <si>
     <t>PROFESI Pendidikan Profesi Akuntansi</t>
@@ -1714,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>

--- a/data_akreditasi.xlsx
+++ b/data_akreditasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="data_akreditasi" sheetId="1" r:id="rId1"/>
@@ -1714,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2114,11 +2114,11 @@
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>21</v>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C36" s="5">
-        <v>45938</v>
+        <v>47730</v>
       </c>
     </row>
     <row r="37" spans="1:3">

--- a/data_akreditasi.xlsx
+++ b/data_akreditasi.xlsx
@@ -197,10 +197,10 @@
     <t>S1 Ilmu Komunikasi</t>
   </si>
   <si>
+    <t>S1 Ilmu Hubungan International</t>
+  </si>
+  <si>
     <t>BAIK</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Hubungan International</t>
   </si>
   <si>
     <t>S1 Sistem Informasi</t>
@@ -1714,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2268,19 +2268,19 @@
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>56</v>
+      <c r="B50" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C50" s="5">
-        <v>47064</v>
+        <v>47728</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="C51" s="5">
         <v>47260</v>
@@ -2478,7 +2478,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C69" s="5">
         <v>46298</v>
@@ -2665,7 +2665,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C86" s="5">
         <v>47477</v>
@@ -2753,7 +2753,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C94" s="5">
         <v>46218</v>
@@ -2786,7 +2786,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C97" s="5">
         <v>46218</v>
@@ -2973,7 +2973,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C114" s="5">
         <v>46351</v>
@@ -3006,7 +3006,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C117" s="5">
         <v>45842</v>
@@ -3028,7 +3028,7 @@
         <v>125</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C119" s="5">
         <v>47472</v>
@@ -3083,7 +3083,7 @@
         <v>130</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C124" s="5">
         <v>45800</v>

--- a/data_akreditasi.xlsx
+++ b/data_akreditasi.xlsx
@@ -53,105 +53,105 @@
     <t>S1 Ilmu Hukum</t>
   </si>
   <si>
+    <t>S1 Teknik Elektro</t>
+  </si>
+  <si>
+    <t>BAIK SEKALI</t>
+  </si>
+  <si>
+    <t>S1 Teknik Kimia</t>
+  </si>
+  <si>
+    <t>S1 Arsitektur</t>
+  </si>
+  <si>
+    <t>S1 Teknik Pertambangan</t>
+  </si>
+  <si>
+    <t>S1 Teknik Sipil</t>
+  </si>
+  <si>
+    <t>S1 Teknik Geologi</t>
+  </si>
+  <si>
+    <t>S1 Teknik Mesin</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Keperawatan</t>
+  </si>
+  <si>
+    <t>S1 Kedokteran/Pendidikan Dokter</t>
+  </si>
+  <si>
+    <t>S1 Kedokteran Gigi</t>
+  </si>
+  <si>
+    <t>S1 Psikologi</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S1 Agroekoteknologi</t>
+  </si>
+  <si>
+    <t>S1 Agribisnis</t>
+  </si>
+  <si>
+    <t>S1 Peternakan</t>
+  </si>
+  <si>
+    <t>S1 Teknologi Hasil Perikanan</t>
+  </si>
+  <si>
+    <t>S1 Budidaya Perairan</t>
+  </si>
+  <si>
+    <t>S1 Agronomi</t>
+  </si>
+  <si>
+    <t>S1 Teknologi Hasil Pertanian</t>
+  </si>
+  <si>
+    <t>S1 Teknik Pertanian</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Hama Dan Penyakit Tumbuhan/Proteksi Tanaman</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Tanah</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Biologi</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Fisika</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Kimia</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Sejarah</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Pancasila Dan Kewarganegaraan</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Ekonomi</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Teknik Mesin</t>
+  </si>
+  <si>
+    <t>S1 Bimbingan Dan Konseling</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Bahasa Inggris</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>S1 Teknik Elektro</t>
-  </si>
-  <si>
-    <t>BAIK SEKALI</t>
-  </si>
-  <si>
-    <t>S1 Teknik Kimia</t>
-  </si>
-  <si>
-    <t>S1 Arsitektur</t>
-  </si>
-  <si>
-    <t>S1 Teknik Pertambangan</t>
-  </si>
-  <si>
-    <t>S1 Teknik Sipil</t>
-  </si>
-  <si>
-    <t>S1 Teknik Geologi</t>
-  </si>
-  <si>
-    <t>S1 Teknik Mesin</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Keperawatan</t>
-  </si>
-  <si>
-    <t>S1 Kedokteran/Pendidikan Dokter</t>
-  </si>
-  <si>
-    <t>S1 Kedokteran Gigi</t>
-  </si>
-  <si>
-    <t>S1 Psikologi</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>S1 Agroekoteknologi</t>
-  </si>
-  <si>
-    <t>S1 Agribisnis</t>
-  </si>
-  <si>
-    <t>S1 Peternakan</t>
-  </si>
-  <si>
-    <t>S1 Teknologi Hasil Perikanan</t>
-  </si>
-  <si>
-    <t>S1 Budidaya Perairan</t>
-  </si>
-  <si>
-    <t>S1 Agronomi</t>
-  </si>
-  <si>
-    <t>S1 Teknologi Hasil Pertanian</t>
-  </si>
-  <si>
-    <t>S1 Teknik Pertanian</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Hama Dan Penyakit Tumbuhan/Proteksi Tanaman</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Tanah</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Biologi</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Fisika</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Kimia</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Sejarah</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Pancasila Dan Kewarganegaraan</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Ekonomi</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Teknik Mesin</t>
-  </si>
-  <si>
-    <t>S1 Bimbingan Dan Konseling</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Bahasa Inggris</t>
-  </si>
-  <si>
     <t>S1 Pendidikan Jasmani, Kesehatan Dan Rekreasi</t>
   </si>
   <si>
@@ -197,10 +197,10 @@
     <t>S1 Ilmu Komunikasi</t>
   </si>
   <si>
+    <t>BAIK</t>
+  </si>
+  <si>
     <t>S1 Ilmu Hubungan International</t>
-  </si>
-  <si>
-    <t>BAIK</t>
   </si>
   <si>
     <t>S1 Sistem Informasi</t>
@@ -1143,14 +1143,14 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1714,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1773,19 +1773,19 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>47107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="5">
         <v>46985</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1803,11 +1803,11 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="5">
         <v>47022</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
         <v>46985</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -1837,18 +1837,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5">
         <v>46741</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
+      <c r="A12" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -1858,8 +1858,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
+      <c r="A13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>4</v>
@@ -1869,8 +1869,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
+      <c r="A14" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>4</v>
@@ -1881,21 +1881,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5">
         <v>47226</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C16" s="5">
         <v>45944</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>4</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -1935,8 +1935,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
+      <c r="A20" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>4</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>4</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>4</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C34" s="5">
         <v>45944</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C35" s="5">
         <v>46097</v>
@@ -2125,8 +2125,8 @@
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>21</v>
+      <c r="B37" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C37" s="5">
         <v>46218</v>
@@ -2158,8 +2158,8 @@
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>21</v>
+      <c r="B40" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C40" s="5">
         <v>46462</v>
@@ -2170,7 +2170,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5">
         <v>45986</v>
@@ -2188,11 +2188,11 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="5">
         <v>46937</v>
@@ -2210,7 +2210,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -2221,18 +2221,18 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="5">
         <v>46940</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2268,19 +2268,19 @@
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>10</v>
+      <c r="B50" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="C50" s="5">
-        <v>47728</v>
+        <v>47064</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="C51" s="5">
         <v>47260</v>
@@ -2298,11 +2298,11 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="5">
         <v>47102</v>
@@ -2364,7 +2364,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2375,11 +2375,11 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>10</v>
+      <c r="B60" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C60" s="5">
         <v>46163</v>
@@ -2389,8 +2389,8 @@
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>10</v>
+      <c r="B61" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C61" s="5">
         <v>47720</v>
@@ -2401,7 +2401,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="5">
         <v>47266</v>
@@ -2411,8 +2411,8 @@
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>21</v>
+      <c r="B63" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C63" s="5">
         <v>45990</v>
@@ -2423,7 +2423,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="5">
         <v>46741</v>
@@ -2456,14 +2456,14 @@
         <v>73</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" s="5">
         <v>47350</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2478,7 +2478,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="5">
         <v>46298</v>
@@ -2510,8 +2510,8 @@
       <c r="A72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>10</v>
+      <c r="B72" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C72" s="5">
         <v>46104</v>
@@ -2521,8 +2521,8 @@
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>21</v>
+      <c r="B73" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C73" s="5">
         <v>46021</v>
@@ -2532,8 +2532,8 @@
       <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>21</v>
+      <c r="B74" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C74" s="5">
         <v>46021</v>
@@ -2544,7 +2544,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="5">
         <v>46628</v>
@@ -2555,7 +2555,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="5">
         <v>47001</v>
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -2588,7 +2588,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="5">
         <v>46742</v>
@@ -2609,8 +2609,8 @@
       <c r="A81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>10</v>
+      <c r="B81" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C81" s="5">
         <v>47749</v>
@@ -2621,7 +2621,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" s="5">
         <v>47102</v>
@@ -2639,11 +2639,11 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <v>46188</v>
@@ -2654,7 +2654,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" s="5">
         <v>46384</v>
@@ -2664,15 +2664,15 @@
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>57</v>
+      <c r="B86" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C86" s="5">
         <v>47477</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2698,7 +2698,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="5">
         <v>47274</v>
@@ -2708,19 +2708,19 @@
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>21</v>
+      <c r="B90" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C90" s="5">
         <v>47108</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="5">
         <v>46337</v>
@@ -2731,7 +2731,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="5">
         <v>47314</v>
@@ -2741,8 +2741,8 @@
       <c r="A93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>10</v>
+      <c r="B93" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C93" s="5">
         <v>47196</v>
@@ -2752,8 +2752,8 @@
       <c r="A94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>57</v>
+      <c r="B94" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C94" s="5">
         <v>46218</v>
@@ -2775,7 +2775,7 @@
         <v>102</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="5">
         <v>46861</v>
@@ -2785,19 +2785,19 @@
       <c r="A97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>57</v>
+      <c r="B97" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C97" s="5">
         <v>46218</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="5">
         <v>46343</v>
@@ -2807,19 +2807,19 @@
       <c r="A99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>21</v>
+      <c r="B99" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C99" s="5">
         <v>46128</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>8</v>
+      <c r="B100" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C100" s="5">
         <v>46141</v>
@@ -2830,7 +2830,7 @@
         <v>107</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C101" s="5">
         <v>47582</v>
@@ -2870,7 +2870,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -2881,7 +2881,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -2892,7 +2892,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -2903,10 +2903,10 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="5">
@@ -2914,7 +2914,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -2925,7 +2925,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="17" t="s">
@@ -2936,7 +2936,7 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B111" s="17" t="s">
@@ -2947,7 +2947,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -2958,7 +2958,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="17" t="s">
@@ -2969,55 +2969,55 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" s="5">
         <v>46351</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" s="5">
         <v>47541</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>8</v>
+      <c r="B116" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C116" s="5">
         <v>45987</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" s="5">
         <v>45842</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>10</v>
+      <c r="B118" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C118" s="5">
         <v>47720</v>
@@ -3027,15 +3027,15 @@
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>57</v>
+      <c r="B119" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C119" s="5">
         <v>47472</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -3046,7 +3046,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -3057,11 +3057,11 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" s="5">
         <v>47226</v>
@@ -3072,7 +3072,7 @@
         <v>129</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C123" s="14">
         <v>46321</v>
@@ -3083,7 +3083,7 @@
         <v>130</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C124" s="5">
         <v>45800</v>

--- a/data_akreditasi.xlsx
+++ b/data_akreditasi.xlsx
@@ -38,388 +38,388 @@
     <t>Tanggal Kedaluwarsa</t>
   </si>
   <si>
+    <t>D3 Akuntansi</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D3 Kesekretariatan</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D3 Komputerisasi Akuntansi</t>
+  </si>
+  <si>
+    <t>UNGGUL</t>
+  </si>
+  <si>
+    <t>D3 Manajemen Informatika</t>
+  </si>
+  <si>
+    <t>BAIK SEKALI</t>
+  </si>
+  <si>
+    <t>D3 Teknik Komputer</t>
+  </si>
+  <si>
+    <t>PROFESI Dokter</t>
+  </si>
+  <si>
+    <t>PROFESI Dokter Gigi</t>
+  </si>
+  <si>
+    <t>PROFESI Ners</t>
+  </si>
+  <si>
+    <t>PROFESI Pendidikan Profesi Akuntansi</t>
+  </si>
+  <si>
+    <t>PROFESI Pendidikan Profesi Apoteker</t>
+  </si>
+  <si>
+    <t>BAIK</t>
+  </si>
+  <si>
+    <t>PROFESI Pendidikan Profesi Guru</t>
+  </si>
+  <si>
+    <t>PROFESI Pendidikan Profesi Insinyur</t>
+  </si>
+  <si>
+    <t>S1 Administrasi Publik</t>
+  </si>
+  <si>
+    <t>S1 Agribisnis</t>
+  </si>
+  <si>
+    <t>S1 Agroekoteknologi</t>
+  </si>
+  <si>
+    <t>S1 Agronomi</t>
+  </si>
+  <si>
+    <t>S1 Akuntansi</t>
+  </si>
+  <si>
+    <t>S1 Arsitektur</t>
+  </si>
+  <si>
+    <t>S1 Bimbingan Dan Konseling</t>
+  </si>
+  <si>
+    <t>S1 Biologi</t>
+  </si>
+  <si>
+    <t>S1 Budidaya Perairan</t>
+  </si>
+  <si>
     <t>S1 Ekonomi Pembangunan</t>
   </si>
   <si>
-    <t>UNGGUL</t>
-  </si>
-  <si>
-    <t>S1 Akuntansi</t>
+    <t>S1 Farmasi</t>
+  </si>
+  <si>
+    <t>S1 Fisika</t>
+  </si>
+  <si>
+    <t>S1 Gizi</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Hama Dan Penyakit Tumbuhan/Proteksi Tanaman</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Hubungan International</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Hukum</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Kelautan</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Keperawatan</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Komunikasi</t>
+  </si>
+  <si>
+    <t>S1 Ilmu Tanah</t>
+  </si>
+  <si>
+    <t>S1 Kedokteran Gigi</t>
+  </si>
+  <si>
+    <t>S1 Kedokteran/Pendidikan Dokter</t>
+  </si>
+  <si>
+    <t>S1 Kesehatan Lingkungan</t>
+  </si>
+  <si>
+    <t>S1 Kesehatan Masyarakat</t>
+  </si>
+  <si>
+    <t>S1 Kimia</t>
   </si>
   <si>
     <t>S1 Manajemen</t>
   </si>
   <si>
-    <t>S1 Ilmu Hukum</t>
+    <t>S1 Matematika</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Bahasa Dan Sastra Indonesia</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Bahasa Inggris</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Biologi</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Ekonomi</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Fisika</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Guru Pendidikan Anak Usia Dini</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Guru Sekolah Dasar</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Jasmani, Kesehatan Dan Rekreasi</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Kimia</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Masyarakat</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Matematika</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Pancasila Dan Kewarganegaraan</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Sejarah</t>
+  </si>
+  <si>
+    <t>S1 Pendidikan Teknik Mesin</t>
+  </si>
+  <si>
+    <t>S1 Peternakan</t>
+  </si>
+  <si>
+    <t>S1 Psikologi</t>
+  </si>
+  <si>
+    <t>S1 Sistem Informasi</t>
+  </si>
+  <si>
+    <t>S1 Sistem Komputer</t>
+  </si>
+  <si>
+    <t>S1 Sosiologi</t>
   </si>
   <si>
     <t>S1 Teknik Elektro</t>
   </si>
   <si>
-    <t>BAIK SEKALI</t>
+    <t>S1 Teknik Geologi</t>
+  </si>
+  <si>
+    <t>S1 Teknik Informatika</t>
   </si>
   <si>
     <t>S1 Teknik Kimia</t>
   </si>
   <si>
-    <t>S1 Arsitektur</t>
+    <t>S1 Teknik Mesin</t>
   </si>
   <si>
     <t>S1 Teknik Pertambangan</t>
   </si>
   <si>
+    <t>S1 Teknik Pertanian</t>
+  </si>
+  <si>
     <t>S1 Teknik Sipil</t>
   </si>
   <si>
-    <t>S1 Teknik Geologi</t>
-  </si>
-  <si>
-    <t>S1 Teknik Mesin</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Keperawatan</t>
-  </si>
-  <si>
-    <t>S1 Kedokteran/Pendidikan Dokter</t>
-  </si>
-  <si>
-    <t>S1 Kedokteran Gigi</t>
-  </si>
-  <si>
-    <t>S1 Psikologi</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>S1 Agroekoteknologi</t>
-  </si>
-  <si>
-    <t>S1 Agribisnis</t>
-  </si>
-  <si>
-    <t>S1 Peternakan</t>
-  </si>
-  <si>
     <t>S1 Teknologi Hasil Perikanan</t>
   </si>
   <si>
-    <t>S1 Budidaya Perairan</t>
-  </si>
-  <si>
-    <t>S1 Agronomi</t>
-  </si>
-  <si>
     <t>S1 Teknologi Hasil Pertanian</t>
   </si>
   <si>
-    <t>S1 Teknik Pertanian</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Hama Dan Penyakit Tumbuhan/Proteksi Tanaman</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Tanah</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Biologi</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Fisika</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Kimia</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Sejarah</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Pancasila Dan Kewarganegaraan</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Ekonomi</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Teknik Mesin</t>
-  </si>
-  <si>
-    <t>S1 Bimbingan Dan Konseling</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Bahasa Inggris</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Jasmani, Kesehatan Dan Rekreasi</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Guru Sekolah Dasar</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Matematika</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Guru Pendidikan Anak Usia Dini</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Masyarakat</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Bahasa Dan Sastra Indonesia</t>
-  </si>
-  <si>
-    <t>S1 Fisika</t>
-  </si>
-  <si>
-    <t>S1 Biologi</t>
-  </si>
-  <si>
-    <t>S1 Kimia</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Kelautan</t>
-  </si>
-  <si>
-    <t>S1 Matematika</t>
-  </si>
-  <si>
-    <t>S1 Farmasi</t>
-  </si>
-  <si>
-    <t>S1 Sosiologi</t>
-  </si>
-  <si>
-    <t>S1 Administrasi Publik</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Komunikasi</t>
-  </si>
-  <si>
-    <t>BAIK</t>
-  </si>
-  <si>
-    <t>S1 Ilmu Hubungan International</t>
-  </si>
-  <si>
-    <t>S1 Sistem Informasi</t>
-  </si>
-  <si>
-    <t>S1 Teknik Informatika</t>
-  </si>
-  <si>
-    <t>S1 Sistem Komputer</t>
-  </si>
-  <si>
-    <t>S1 Gizi</t>
-  </si>
-  <si>
-    <t>S1 Kesehatan Masyarakat</t>
-  </si>
-  <si>
-    <t>S1 Kesehatan Lingkungan</t>
+    <t>S2 Administrasi Publik</t>
+  </si>
+  <si>
+    <t>S2 Agribisnis</t>
+  </si>
+  <si>
+    <t>S2 Biologi</t>
+  </si>
+  <si>
+    <t>S2 Biomedik</t>
+  </si>
+  <si>
+    <t>S2 Fisika</t>
+  </si>
+  <si>
+    <t>S2 Ilmu Akuntansi</t>
+  </si>
+  <si>
+    <t>S2 Ilmu Ekonomi</t>
+  </si>
+  <si>
+    <t>S2 Ilmu Hukum</t>
+  </si>
+  <si>
+    <t>S2 Ilmu Kesehatan Masyarakat</t>
+  </si>
+  <si>
+    <t>S2 Ilmu Komputer</t>
+  </si>
+  <si>
+    <t>S2 Ilmu Manajemen</t>
+  </si>
+  <si>
+    <t>S2 Ilmu Material</t>
+  </si>
+  <si>
+    <t>S2 Ilmu Tanaman</t>
+  </si>
+  <si>
+    <t>S2 Kenotariatan</t>
+  </si>
+  <si>
+    <t>S2 Kependudukan</t>
+  </si>
+  <si>
+    <t>S2 Kimia</t>
   </si>
   <si>
     <t>S2 Manajemen</t>
   </si>
   <si>
-    <t>S2 Ilmu Manajemen</t>
-  </si>
-  <si>
-    <t>S2 Ilmu Ekonomi</t>
-  </si>
-  <si>
-    <t>S2 Ilmu Akuntansi</t>
-  </si>
-  <si>
-    <t>S2 Kenotariatan</t>
-  </si>
-  <si>
-    <t>S2 Ilmu Hukum</t>
+    <t>S2 Pendidikan Bahasa</t>
+  </si>
+  <si>
+    <t>S2 Pendidikan Fisika</t>
+  </si>
+  <si>
+    <t>S2 Pendidikan Matematika</t>
+  </si>
+  <si>
+    <t>S2 Pendidikan Olahraga</t>
+  </si>
+  <si>
+    <t>S2 Pengelolaan Lingkungan</t>
+  </si>
+  <si>
+    <t>S2 Sosiologi</t>
   </si>
   <si>
     <t>S2 Teknik Kimia</t>
   </si>
   <si>
+    <t>S2 Teknik Mesin</t>
+  </si>
+  <si>
+    <t>S2 Teknik Pertambangan</t>
+  </si>
+  <si>
     <t>S2 Teknik Sipil</t>
   </si>
   <si>
-    <t>S2 Teknik Mesin</t>
-  </si>
-  <si>
-    <t>S2 Teknik Pertambangan</t>
-  </si>
-  <si>
-    <t>S2 Biomedik</t>
-  </si>
-  <si>
     <t>S2 Teknologi Industri Pertanian</t>
   </si>
   <si>
-    <t>S2 Ilmu Tanaman</t>
-  </si>
-  <si>
-    <t>S2 Agribisnis</t>
-  </si>
-  <si>
-    <t>S2 Pendidikan Matematika</t>
-  </si>
-  <si>
     <t>S2 Teknologi Pendidikan</t>
   </si>
   <si>
-    <t>S2 Pendidikan Bahasa</t>
-  </si>
-  <si>
-    <t>S2 Pendidikan Olahraga</t>
-  </si>
-  <si>
-    <t>S2 Pendidikan Fisika</t>
-  </si>
-  <si>
-    <t>S2 Biologi</t>
-  </si>
-  <si>
-    <t>S2 Kimia</t>
-  </si>
-  <si>
-    <t>S2 Fisika</t>
-  </si>
-  <si>
-    <t>S2 Administrasi Publik</t>
-  </si>
-  <si>
-    <t>S2 Sosiologi</t>
-  </si>
-  <si>
-    <t>S2 Ilmu Komputer</t>
-  </si>
-  <si>
-    <t>S2 Ilmu Kesehatan Masyarakat</t>
-  </si>
-  <si>
-    <t>S2 Pengelolaan Lingkungan</t>
-  </si>
-  <si>
-    <t>S2 Kependudukan</t>
-  </si>
-  <si>
-    <t>S2 Ilmu Material</t>
+    <t>S3 Administrasi Publik</t>
   </si>
   <si>
     <t>S3 Ilmu Ekonomi</t>
   </si>
   <si>
+    <t>S3 Ilmu Hukum</t>
+  </si>
+  <si>
+    <t>S3 Ilmu Komputer</t>
+  </si>
+  <si>
+    <t>S3 Ilmu Lingkungan</t>
+  </si>
+  <si>
     <t>S3 Ilmu Manajemen</t>
   </si>
   <si>
-    <t>S3 Ilmu Hukum</t>
+    <t>S3 Ilmu Matematika &amp; Ilmu Pengetahuan Alam</t>
+  </si>
+  <si>
+    <t>S3 Ilmu Pertanian</t>
   </si>
   <si>
     <t>S3 Ilmu Teknik</t>
   </si>
   <si>
+    <t>S3 Pendidikan</t>
+  </si>
+  <si>
+    <t>S3 Pendidikan Matematika</t>
+  </si>
+  <si>
     <t>S3 Sains Biomedis</t>
   </si>
   <si>
-    <t>S3 Ilmu Pertanian</t>
-  </si>
-  <si>
-    <t>S3 Pendidikan Matematika</t>
-  </si>
-  <si>
-    <t>S3 Pendidikan</t>
-  </si>
-  <si>
-    <t>S3 Ilmu Matematika &amp; Ilmu Pengetahuan Alam</t>
-  </si>
-  <si>
-    <t>S3 Administrasi Publik</t>
-  </si>
-  <si>
-    <t>S3 Ilmu Komputer</t>
-  </si>
-  <si>
-    <t>S3 Ilmu Lingkungan</t>
-  </si>
-  <si>
-    <t>D3 Kesekretariatan</t>
-  </si>
-  <si>
-    <t>D3 Akuntansi</t>
-  </si>
-  <si>
-    <t>D3 Manajemen Informatika</t>
-  </si>
-  <si>
-    <t>D3 Teknik Komputer</t>
-  </si>
-  <si>
-    <t>D3 Komputerisasi Akuntansi</t>
+    <t>SP1 Anestesiologi dan Reanimasi</t>
+  </si>
+  <si>
+    <t>SP1 Bedah Toraks, Kardiak, dan Vaskular</t>
+  </si>
+  <si>
+    <t>SP1 Ilmu Bedah</t>
+  </si>
+  <si>
+    <t>SP1 Ilmu Kebidanan dan Penyakit Kandungan</t>
+  </si>
+  <si>
+    <t>SP1 Ilmu Kesehatan Anak</t>
+  </si>
+  <si>
+    <t>SP1 Ilmu Kesehatan Kulit dan Kelamin</t>
+  </si>
+  <si>
+    <t>SP1 Ilmu Kesehatan THT-KL</t>
+  </si>
+  <si>
+    <t>SP1 Ilmu Patologi Anatomi</t>
+  </si>
+  <si>
+    <t>SP1 Ilmu Penyakit Dalam</t>
   </si>
   <si>
     <t>SP1 Ilmu Penyakit Mata</t>
   </si>
   <si>
-    <t>SP1 Ilmu Patologi Anatomi</t>
-  </si>
-  <si>
-    <t>SP1 Anestesiologi dan Reanimasi</t>
-  </si>
-  <si>
-    <t>SP1 Ilmu Kesehatan THT-KL</t>
-  </si>
-  <si>
     <t>SP1 Ilmu Penyakit Syaraf/Neurologi</t>
   </si>
   <si>
-    <t>SP1 Ilmu Penyakit Dalam</t>
-  </si>
-  <si>
-    <t>SP1 Ilmu Kebidanan dan Penyakit Kandungan</t>
-  </si>
-  <si>
-    <t>SP1 Ilmu Bedah</t>
-  </si>
-  <si>
-    <t>SP1 Ilmu Kesehatan Anak</t>
-  </si>
-  <si>
-    <t>SP1 Ilmu Kesehatan Kulit dan Kelamin</t>
-  </si>
-  <si>
     <t>SP1 Ortopedi dan Traumatologi</t>
   </si>
   <si>
-    <t>SP1 Bedah Toraks, Kardiak, dan Vaskular</t>
-  </si>
-  <si>
     <t>SP2 Ilmu Penyakit Dalam</t>
   </si>
   <si>
     <t>SP2 Obstetrik dan Ginekologi</t>
-  </si>
-  <si>
-    <t>PROFESI Pendidikan Profesi Akuntansi</t>
-  </si>
-  <si>
-    <t>PROFESI Pendidikan Profesi Insinyur</t>
-  </si>
-  <si>
-    <t>PROFESI Dokter</t>
-  </si>
-  <si>
-    <t>PROFESI Ners</t>
-  </si>
-  <si>
-    <t>PROFESI Dokter Gigi</t>
-  </si>
-  <si>
-    <t>PROFESI Pendidikan Profesi Guru</t>
-  </si>
-  <si>
-    <t>PROFESI Pendidikan Profesi Apoteker</t>
   </si>
 </sst>
 </file>
@@ -1132,37 +1132,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1171,7 +1171,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1714,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1744,810 +1744,810 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>47039</v>
+        <v>46141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>47720</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>46128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>47414</v>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>47582</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>47107</v>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>47582</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5">
-        <v>46985</v>
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>47582</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>47107</v>
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>46944</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5">
-        <v>47022</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>47226</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>46985</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>46962</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5">
-        <v>46985</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>47720</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5">
-        <v>46741</v>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45800</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
+      <c r="A12" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
-        <v>47350</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>46321</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>46962</v>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4">
+        <v>47472</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5">
-        <v>46944</v>
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4">
+        <v>47720</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5">
-        <v>47226</v>
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>46797</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>46804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>47001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>47720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>47022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4">
         <v>45944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5">
-        <v>46804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5">
-        <v>46797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5">
-        <v>46959</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>46945</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>46937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4">
         <v>46966</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5">
-        <v>47001</v>
-      </c>
-    </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5">
-        <v>47107</v>
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10">
+        <v>47039</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5">
-        <v>45798</v>
+        <v>30</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4">
+        <v>47003</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="A25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4">
+        <v>46930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <v>47541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4">
         <v>47602</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5">
-        <v>47617</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5">
-        <v>46965</v>
-      </c>
-    </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
+      <c r="A28" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5">
-        <v>46943</v>
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>47735</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>46930</v>
+      <c r="A29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>47107</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5">
-        <v>47036</v>
+        <v>36</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>46952</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="5">
-        <v>47084</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="4">
+        <v>46962</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
+      <c r="A32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="C32" s="4">
-        <v>47747</v>
+        <v>47728</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5">
-        <v>47574</v>
+      <c r="A33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4">
+        <v>47617</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
+      <c r="A34" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="5">
-        <v>45944</v>
+        <v>10</v>
+      </c>
+      <c r="C34" s="4">
+        <v>47226</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="5">
-        <v>46097</v>
+      <c r="A35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <v>46944</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5">
-        <v>47730</v>
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4">
+        <v>47311</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="5">
-        <v>46218</v>
+      <c r="A37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>47110</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5">
-        <v>46468</v>
+      <c r="A38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4">
+        <v>46881</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5">
-        <v>46468</v>
+      <c r="A39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4">
+        <v>47414</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="5">
+        <v>46</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4">
+        <v>46940</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4">
+        <v>46965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="10">
+        <v>47747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4">
+        <v>46943</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4">
+        <v>46468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4">
+        <v>47666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>47730</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4">
+        <v>46930</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4">
         <v>46462</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5">
-        <v>45986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="5">
-        <v>46930</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="5">
-        <v>46937</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="5">
-        <v>46881</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5">
-        <v>46952</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="5">
-        <v>46940</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5">
-        <v>47003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="5">
-        <v>47349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="5">
-        <v>47720</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="5">
-        <v>47064</v>
-      </c>
-    </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="5">
-        <v>47260</v>
+      <c r="B51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4">
+        <v>46468</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="5">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4">
+        <v>47084</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4">
+        <v>47036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4">
+        <v>47574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4">
+        <v>46959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4">
         <v>47102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="5">
-        <v>47102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5">
-        <v>47102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="5">
-        <v>47541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="5">
-        <v>47110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="5">
-        <v>47311</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="5">
-        <v>46752</v>
+      <c r="B58" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4">
+        <v>47102</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="5">
-        <v>47720</v>
+      <c r="B59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4">
+        <v>47349</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="5">
-        <v>46163</v>
+      <c r="B60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4">
+        <v>46985</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="5">
-        <v>47720</v>
+      <c r="B61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="4">
+        <v>46741</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="5">
-        <v>47266</v>
+      <c r="B62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="4">
+        <v>47102</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="5">
-        <v>45990</v>
+      <c r="B63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="4">
+        <v>47107</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="5">
-        <v>46741</v>
+      <c r="B64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="4">
+        <v>47350</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="5">
-        <v>47472</v>
+      <c r="B65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4">
+        <v>46985</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="5">
-        <v>47350</v>
+      <c r="B66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="4">
+        <v>45798</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="5">
-        <v>47350</v>
+      <c r="B67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="4">
+        <v>46985</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="5">
+      <c r="B68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="4">
+        <v>46945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4">
+        <v>47107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4">
+        <v>47252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4">
+        <v>46184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="4">
+        <v>47115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="4">
         <v>47360</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="5">
-        <v>46298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5">
-        <v>46118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="5">
-        <v>46184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="5">
-        <v>46104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="5">
-        <v>46021</v>
-      </c>
-    </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="5">
-        <v>46021</v>
+      <c r="B74" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="4">
+        <v>46742</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="5">
-        <v>46628</v>
+      <c r="B75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="4">
+        <v>47720</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2555,417 +2555,417 @@
         <v>82</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="5">
-        <v>47001</v>
+        <v>10</v>
+      </c>
+      <c r="C76" s="4">
+        <v>46163</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="5">
-        <v>47115</v>
+        <v>6</v>
+      </c>
+      <c r="C77" s="4">
+        <v>45990</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="5">
-        <v>46948</v>
+      <c r="B78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="4">
+        <v>46941</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="5">
-        <v>46742</v>
+        <v>10</v>
+      </c>
+      <c r="C79" s="4">
+        <v>47102</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="5">
-        <v>47252</v>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="4">
+        <v>47720</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="5">
-        <v>47749</v>
+      <c r="B81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="4">
+        <v>47477</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="5">
-        <v>47102</v>
+        <v>8</v>
+      </c>
+      <c r="C82" s="4">
+        <v>46118</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="5">
-        <v>46941</v>
+      <c r="B83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="4">
+        <v>47266</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="5">
-        <v>46188</v>
+      <c r="B84" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="4">
+        <v>46384</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="5">
-        <v>46384</v>
+      <c r="B85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="4">
+        <v>46948</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="5">
-        <v>47477</v>
+      <c r="B86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="4">
+        <v>46752</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="5">
+      <c r="B87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="4">
+        <v>46021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="4">
+        <v>47001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="4">
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="4">
+        <v>46628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="4">
+        <v>46188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="4">
+        <v>47749</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="4">
+        <v>46741</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="4">
+        <v>47350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="4">
+        <v>47350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="4">
+        <v>47472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="4">
+        <v>46298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="4">
+        <v>46021</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="4">
+        <v>46861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="4">
         <v>47720</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="5">
-        <v>47339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="5">
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="4">
         <v>47274</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="5">
-        <v>47108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="5">
-        <v>46337</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="5">
-        <v>47314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="5">
-        <v>47196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" s="5">
+    <row r="102" spans="1:3">
+      <c r="A102" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="4">
         <v>46218</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="5">
-        <v>47115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="5">
-        <v>46861</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" s="5">
-        <v>46218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="5">
-        <v>46343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="5">
-        <v>46128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C100" s="5">
-        <v>46141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="5">
-        <v>47582</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="5">
-        <v>47582</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="5">
-        <v>47582</v>
+      <c r="B103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="4">
+        <v>46343</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="5">
-        <v>47311</v>
+      <c r="B104" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="4">
+        <v>47339</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="5">
-        <v>47049</v>
+      <c r="B105" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="4">
+        <v>47115</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="5">
+      <c r="B106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="4">
+        <v>47314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="4">
+        <v>47108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="4">
+        <v>46218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="4">
+        <v>47196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="4">
+        <v>46337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="4">
         <v>46764</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="5">
-        <v>46857</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="5">
-        <v>47725</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="5">
-        <v>46714</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="5">
-        <v>46977</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="5">
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="4">
+        <v>47541</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="4">
         <v>46547</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="5">
-        <v>46659</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="5">
-        <v>46941</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2973,76 +2973,76 @@
         <v>120</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C114" s="5">
-        <v>46351</v>
+        <v>8</v>
+      </c>
+      <c r="C114" s="4">
+        <v>46977</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="5">
-        <v>47541</v>
+      <c r="B115" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="4">
+        <v>46659</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C116" s="5">
-        <v>45987</v>
+      <c r="B116" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="4">
+        <v>46941</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C117" s="5">
-        <v>45842</v>
+      <c r="B117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="4">
+        <v>46857</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="5">
-        <v>47720</v>
+      <c r="B118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="4">
+        <v>47049</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C119" s="5">
-        <v>47472</v>
+      <c r="B119" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="4">
+        <v>46714</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="5">
-        <v>46944</v>
+      <c r="B120" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="4">
+        <v>47311</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3050,21 +3050,21 @@
         <v>127</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="5">
-        <v>46962</v>
+        <v>8</v>
+      </c>
+      <c r="C121" s="4">
+        <v>47725</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="5">
-        <v>47226</v>
+      <c r="B122" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="4">
+        <v>46351</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3072,10 +3072,10 @@
         <v>129</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C123" s="14">
-        <v>46321</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3083,13 +3083,16 @@
         <v>130</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C124" s="5">
-        <v>45800</v>
+        <v>17</v>
+      </c>
+      <c r="C124" s="4">
+        <v>45842</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C124">
+    <sortCondition ref="A2:A124"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
